--- a/Crank-Nicolson/crank-nicolson.xlsx
+++ b/Crank-Nicolson/crank-nicolson.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Nishimura\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE565D5-1B8F-48AE-98AD-A3181B878697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4929893-4029-42BC-970E-F361A82789E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="20715" windowHeight="13424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="20715" windowHeight="13424" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dt = 0.01 " sheetId="4" r:id="rId1"/>
     <sheet name="dt = 1×10^-4" sheetId="5" r:id="rId2"/>
+    <sheet name="定常解" sheetId="6" r:id="rId3"/>
+    <sheet name="直接法と間接法との比較" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>x</t>
   </si>
@@ -58,12 +68,46 @@
   <si>
     <t>u(x,1.0)</t>
   </si>
+  <si>
+    <t>Δt = 0.01</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Analytical solution</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <r>
+      <t>Δt = 1 × 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +266,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1550,7 +1608,7 @@
         <c:axId val="1001819648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14"/>
+          <c:max val="13"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1728,7 +1786,7 @@
         <c:crossAx val="1098250720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="1"/>
         <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
@@ -1786,12 +1844,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1808,8 +1861,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.1" l="0.05" r="0.01" t="0.08" header="0" footer="0"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1968,11 +2021,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dt = 1×10^-4'!$A$4</c:f>
+              <c:f>'dt = 1×10^-4'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u(x,0.2)</c:v>
+                  <c:v>u(x,0.1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2222,141 +2275,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dt = 1×10^-4'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u(x,0.7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'dt = 1×10^-4'!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'dt = 1×10^-4'!$B$9:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8279999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.798</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7539999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7839999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.8310000000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.89</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A5D4-4707-95F6-1193E33DABAD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="10"/>
           <c:order val="4"/>
           <c:tx>
@@ -2495,6 +2413,165 @@
         </c:dLbls>
         <c:axId val="457719856"/>
         <c:axId val="996561424"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 1×10^-4'!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.7)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 1×10^-4'!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 1×10^-4'!$B$9:$L$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.93400000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.875</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.8279999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.798</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.7439999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.7539999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.7839999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.8310000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.89</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-A5D4-4707-95F6-1193E33DABAD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="457719856"/>
@@ -2838,12 +2915,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2860,8 +2932,814 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.2" l="0.01" r="0.01" t="0.22" header="0.01" footer="0"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定常解!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Δt = 0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>定常解!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>定常解!$B$2:$L$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.927</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C48-4243-846A-71A5A6382792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定常解!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Δt = 1 × 10⁻⁴</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>定常解!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>定常解!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0059999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0020000000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C48-4243-846A-71A5A6382792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63873856"/>
+        <c:axId val="2032799632"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>定常解!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Analytical solution</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>定常解!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>定常解!$B$4:$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9C48-4243-846A-71A5A6382792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="63873856"/>
+        <c:axId val="2032799632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="63873856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032799632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2032799632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>u</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="1" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="63873856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.14000000000000001" l="0" r="0.01" t="0.13" header="0.01" footer="0.02"/>
+    <c:pageSetup paperSize="5" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2946,6 +3824,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3463,6 +4381,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4048,6 +5482,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>185738</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>211930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45242</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5A231A-FE86-4E3D-874C-9491F2D6C952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4363,8 +5838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -4836,8 +6311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5303,4 +6778,203 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30DC1E3-DF6E-4128-B009-869944185A43}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="1" width="15.8125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0.1</v>
+      </c>
+      <c r="D1">
+        <v>0.2</v>
+      </c>
+      <c r="E1">
+        <v>0.3</v>
+      </c>
+      <c r="F1">
+        <v>0.4</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="H1">
+        <v>0.6</v>
+      </c>
+      <c r="I1">
+        <v>0.7</v>
+      </c>
+      <c r="J1">
+        <v>0.8</v>
+      </c>
+      <c r="K1">
+        <v>0.9</v>
+      </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="D2">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="E2">
+        <v>2.9380000000000002</v>
+      </c>
+      <c r="F2">
+        <v>3.927</v>
+      </c>
+      <c r="G2">
+        <v>5.3789999999999996</v>
+      </c>
+      <c r="H2">
+        <v>6.3819999999999997</v>
+      </c>
+      <c r="I2">
+        <v>7.3929999999999998</v>
+      </c>
+      <c r="J2">
+        <v>8.41</v>
+      </c>
+      <c r="K2">
+        <v>9.4320000000000004</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.002</v>
+      </c>
+      <c r="D3">
+        <v>2.004</v>
+      </c>
+      <c r="E3">
+        <v>3.0059999999999998</v>
+      </c>
+      <c r="F3">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="G3">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="H3">
+        <v>6.0069999999999997</v>
+      </c>
+      <c r="I3">
+        <v>7.0060000000000002</v>
+      </c>
+      <c r="J3">
+        <v>8.0039999999999996</v>
+      </c>
+      <c r="K3">
+        <v>9.0020000000000007</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <f>B1*10</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:L4" si="0">C1*10</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AB084-80A8-4104-99F4-A86C5BD73B07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetData/>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Crank-Nicolson/crank-nicolson.xlsx
+++ b/Crank-Nicolson/crank-nicolson.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A.Nishimura\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\A.Nishimura\GitHub\Physics-Simulation\Crank-Nicolson\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4929893-4029-42BC-970E-F361A82789E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780249C9-F733-4B93-8581-A492B328E7C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="353" windowWidth="20715" windowHeight="13424" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="353" windowWidth="20715" windowHeight="13424" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dt = 0.01 " sheetId="4" r:id="rId1"/>
@@ -816,395 +816,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$2:$L$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F42-4DB1-8DF6-B1CC69CFF278}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dt = 0.01 '!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u(x,0.2)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$4:$L$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3360000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.6589999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.9420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.409000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.021000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F42-4DB1-8DF6-B1CC69CFF278}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dt = 0.01 '!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u(x,0.5)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$1:$L$1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'dt = 0.01 '!$B$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.84299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.589</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5179999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.1649999999999991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.2769999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.417999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9F42-4DB1-8DF6-B1CC69CFF278}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dt = 0.01 '!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>u(x,0.7)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1216,14 +830,16 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
               </a:ln>
@@ -1274,7 +890,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'dt = 0.01 '!$B$9:$L$9</c:f>
+              <c:f>'dt = 0.01 '!$B$2:$L$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1282,31 +898,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93400000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8279999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.798</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.73</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.7409999999999997</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7709999999999999</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8179999999999996</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.8770000000000007</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
@@ -1317,20 +933,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9F42-4DB1-8DF6-B1CC69CFF278}"/>
+              <c16:uniqueId val="{00000000-9F42-4DB1-8DF6-B1CC69CFF278}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dt = 0.01 '!$A$12</c:f>
+              <c:f>'dt = 0.01 '!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u(x,1.0)</c:v>
+                  <c:v>u(x,0.1)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,9 +954,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1351,15 +965,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1409,6 +1019,264 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>'dt = 0.01 '!$B$3:$L$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9159999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4429999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F27-4E35-B8A6-3C0E91C4982E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dt = 0.01 '!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u(x,0.3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dt = 0.01 '!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dt = 0.01 '!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F27-4E35-B8A6-3C0E91C4982E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dt = 0.01 '!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u(x,1.0)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dt = 0.01 '!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>'dt = 0.01 '!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1417,31 +1285,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97599999999999998</c:v>
+                  <c:v>1.0029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9550000000000001</c:v>
+                  <c:v>2.0059999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9380000000000002</c:v>
+                  <c:v>3.008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.927</c:v>
+                  <c:v>4.0090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3789999999999996</c:v>
+                  <c:v>5.0090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3819999999999997</c:v>
+                  <c:v>6.0090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.3929999999999998</c:v>
+                  <c:v>7.0069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.41</c:v>
+                  <c:v>8.0050000000000008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4320000000000004</c:v>
+                  <c:v>9.0030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>10</c:v>
@@ -1466,6 +1334,1077 @@
         </c:dLbls>
         <c:axId val="1098250720"/>
         <c:axId val="1001819648"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.2)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$4:$L$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.077</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.1579999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.2410000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.319</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.3769999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.3979999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.3680000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.2840000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.1549999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-9F42-4DB1-8DF6-B1CC69CFF278}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.4)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$6:$L$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0429999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0830000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.1139999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.1349999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.1420000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.1360000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.1159999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0850000000000009</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.0449999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-2F27-4E35-B8A6-3C0E91C4982E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.5)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$7:$L$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0269999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.052</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0710000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0839999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0880000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0839999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0709999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0519999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.0269999999999992</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-9F42-4DB1-8DF6-B1CC69CFF278}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.6)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$8:$L$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0169999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.032</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0449999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0519999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0549999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0519999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0439999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.032</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.0169999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-2F27-4E35-B8A6-3C0E91C4982E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.7)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$9:$L$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0109999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.02</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.028</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0330000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0339999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.032</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0270000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.02</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.01</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-9F42-4DB1-8DF6-B1CC69CFF278}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.8)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$10:$L$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.0069999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0129999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0169999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0199999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0209999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.02</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0170000000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0120000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.0069999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-2F27-4E35-B8A6-3C0E91C4982E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$A$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>u(x,0.9)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$1:$L$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'dt = 0.01 '!$B$11:$L$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="11"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.004</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.008</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3.0110000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.0129999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.0140000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6.0129999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.0110000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0079999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.0039999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-2F27-4E35-B8A6-3C0E91C4982E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1098250720"/>
@@ -1608,7 +2547,7 @@
         <c:axId val="1001819648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2147,7 +3086,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'dt = 1×10^-4'!$A$7</c:f>
@@ -2275,8 +3214,146 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dt = 1×10^-4'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u(x,0.7)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'dt = 1×10^-4'!$B$1:$L$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'dt = 1×10^-4'!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.7539999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8310000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A5D4-4707-95F6-1193E33DABAD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="10"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'dt = 1×10^-4'!$A$12</c:f>
@@ -2417,21 +3494,21 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="3"/>
+                <c:idx val="1"/>
+                <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'dt = 1×10^-4'!$A$9</c15:sqref>
+                          <c15:sqref>'dt = 1×10^-4'!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>u(x,0.7)</c:v>
+                        <c:v>u(x,0.3)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2439,9 +3516,7 @@
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -2452,15 +3527,11 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3">
-                        <a:lumMod val="60000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3">
-                          <a:lumMod val="60000"/>
-                        </a:schemeClr>
+                        <a:schemeClr val="accent2"/>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -2519,7 +3590,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'dt = 1×10^-4'!$B$9:$L$9</c15:sqref>
+                          <c15:sqref>'dt = 1×10^-4'!$B$5:$L$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2530,31 +3601,31 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.93400000000000005</c:v>
+                        <c:v>0.60099999999999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.875</c:v>
+                        <c:v>1.2410000000000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.8279999999999998</c:v>
+                        <c:v>1.9530000000000001</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>3.798</c:v>
+                        <c:v>2.7650000000000001</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>4.7439999999999998</c:v>
+                        <c:v>3.0720000000000001</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.7539999999999996</c:v>
+                        <c:v>4.1319999999999997</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.7839999999999998</c:v>
+                        <c:v>5.3150000000000004</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>7.8310000000000004</c:v>
+                        <c:v>6.6029999999999998</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>8.89</c:v>
+                        <c:v>7.9690000000000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>10</c:v>
@@ -2565,7 +3636,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-A5D4-4707-95F6-1193E33DABAD}"/>
+                    <c16:uniqueId val="{00000001-DAD5-4BDA-A6A5-F8B7A115909B}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5838,8 +6909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -5928,31 +6999,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.127</v>
+        <v>0.91200000000000003</v>
       </c>
       <c r="D3">
-        <v>0.29199999999999998</v>
+        <v>1.9159999999999999</v>
       </c>
       <c r="E3">
-        <v>0.54400000000000004</v>
+        <v>3.06</v>
       </c>
       <c r="F3">
-        <v>0.94</v>
+        <v>4.3250000000000002</v>
       </c>
       <c r="G3">
-        <v>6.84</v>
+        <v>5.6289999999999996</v>
       </c>
       <c r="H3">
-        <v>7.7859999999999996</v>
+        <v>6.86</v>
       </c>
       <c r="I3">
-        <v>9.1270000000000007</v>
+        <v>7.923</v>
       </c>
       <c r="J3">
-        <v>10.878</v>
+        <v>8.7759999999999998</v>
       </c>
       <c r="K3">
-        <v>12.911</v>
+        <v>9.4429999999999996</v>
       </c>
       <c r="L3">
         <v>10</v>
@@ -5966,31 +7037,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.375</v>
+        <v>1.077</v>
       </c>
       <c r="D4">
-        <v>0.80400000000000005</v>
+        <v>2.1579999999999999</v>
       </c>
       <c r="E4">
-        <v>1.3360000000000001</v>
+        <v>3.2410000000000001</v>
       </c>
       <c r="F4">
-        <v>2.0129999999999999</v>
+        <v>4.319</v>
       </c>
       <c r="G4">
-        <v>6.5910000000000002</v>
+        <v>5.3769999999999998</v>
       </c>
       <c r="H4">
-        <v>7.6589999999999998</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="I4">
-        <v>8.9420000000000002</v>
+        <v>7.3680000000000003</v>
       </c>
       <c r="J4">
-        <v>10.409000000000001</v>
+        <v>8.2840000000000007</v>
       </c>
       <c r="K4">
-        <v>12.021000000000001</v>
+        <v>9.1549999999999994</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -6004,31 +7075,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.60099999999999998</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="D5">
-        <v>1.24</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="E5">
-        <v>1.952</v>
+        <v>3.1779999999999999</v>
       </c>
       <c r="F5">
-        <v>2.766</v>
+        <v>4.2149999999999999</v>
       </c>
       <c r="G5">
-        <v>6.431</v>
+        <v>5.2320000000000002</v>
       </c>
       <c r="H5">
-        <v>7.492</v>
+        <v>6.226</v>
       </c>
       <c r="I5">
-        <v>8.6750000000000007</v>
+        <v>7.1970000000000001</v>
       </c>
       <c r="J5">
-        <v>9.9629999999999992</v>
+        <v>8.1449999999999996</v>
       </c>
       <c r="K5">
-        <v>11.334</v>
+        <v>9.077</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -6042,31 +7113,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.75</v>
+        <v>1.0429999999999999</v>
       </c>
       <c r="D6">
-        <v>1.5249999999999999</v>
+        <v>2.0830000000000002</v>
       </c>
       <c r="E6">
-        <v>2.3460000000000001</v>
+        <v>3.1139999999999999</v>
       </c>
       <c r="F6">
-        <v>3.2330000000000001</v>
+        <v>4.1349999999999998</v>
       </c>
       <c r="G6">
-        <v>6.2519999999999998</v>
+        <v>5.1420000000000003</v>
       </c>
       <c r="H6">
-        <v>7.2930000000000001</v>
+        <v>6.1360000000000001</v>
       </c>
       <c r="I6">
-        <v>8.4079999999999995</v>
+        <v>7.1159999999999997</v>
       </c>
       <c r="J6">
-        <v>9.5869999999999997</v>
+        <v>8.0850000000000009</v>
       </c>
       <c r="K6">
-        <v>10.814</v>
+        <v>9.0449999999999999</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -6080,31 +7151,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.84299999999999997</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="D7">
-        <v>1.7010000000000001</v>
+        <v>2.052</v>
       </c>
       <c r="E7">
-        <v>2.589</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="F7">
-        <v>3.5179999999999998</v>
+        <v>4.0839999999999996</v>
       </c>
       <c r="G7">
-        <v>6.0659999999999998</v>
+        <v>5.0880000000000001</v>
       </c>
       <c r="H7">
-        <v>7.0919999999999996</v>
+        <v>6.0839999999999996</v>
       </c>
       <c r="I7">
-        <v>8.1649999999999991</v>
+        <v>7.0709999999999997</v>
       </c>
       <c r="J7">
-        <v>9.2769999999999992</v>
+        <v>8.0519999999999996</v>
       </c>
       <c r="K7">
-        <v>10.417999999999999</v>
+        <v>9.0269999999999992</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -6118,31 +7189,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.89900000000000002</v>
+        <v>1.0169999999999999</v>
       </c>
       <c r="D8">
-        <v>1.8089999999999999</v>
+        <v>2.032</v>
       </c>
       <c r="E8">
-        <v>2.7370000000000001</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="F8">
-        <v>3.6920000000000002</v>
+        <v>4.0519999999999996</v>
       </c>
       <c r="G8">
-        <v>5.8890000000000002</v>
+        <v>5.0549999999999997</v>
       </c>
       <c r="H8">
-        <v>6.9059999999999997</v>
+        <v>6.0519999999999996</v>
       </c>
       <c r="I8">
-        <v>7.952</v>
+        <v>7.0439999999999996</v>
       </c>
       <c r="J8">
-        <v>9.0239999999999991</v>
+        <v>8.032</v>
       </c>
       <c r="K8">
-        <v>10.113</v>
+        <v>9.0169999999999995</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -6156,31 +7227,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.93400000000000005</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="D9">
-        <v>1.875</v>
+        <v>2.02</v>
       </c>
       <c r="E9">
-        <v>2.8279999999999998</v>
+        <v>3.028</v>
       </c>
       <c r="F9">
-        <v>3.798</v>
+        <v>4.0330000000000004</v>
       </c>
       <c r="G9">
-        <v>5.73</v>
+        <v>5.0339999999999998</v>
       </c>
       <c r="H9">
-        <v>6.7409999999999997</v>
+        <v>6.032</v>
       </c>
       <c r="I9">
-        <v>7.7709999999999999</v>
+        <v>7.0270000000000001</v>
       </c>
       <c r="J9">
-        <v>8.8179999999999996</v>
+        <v>8.02</v>
       </c>
       <c r="K9">
-        <v>9.8770000000000007</v>
+        <v>9.01</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -6194,31 +7265,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.95499999999999996</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="D10">
-        <v>1.915</v>
+        <v>2.0129999999999999</v>
       </c>
       <c r="E10">
-        <v>2.883</v>
+        <v>3.0169999999999999</v>
       </c>
       <c r="F10">
-        <v>3.863</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="G10">
-        <v>5.5919999999999996</v>
+        <v>5.0209999999999999</v>
       </c>
       <c r="H10">
-        <v>6.5990000000000002</v>
+        <v>6.02</v>
       </c>
       <c r="I10">
-        <v>7.62</v>
+        <v>7.0170000000000003</v>
       </c>
       <c r="J10">
-        <v>8.6519999999999992</v>
+        <v>8.0120000000000005</v>
       </c>
       <c r="K10">
-        <v>9.6920000000000002</v>
+        <v>9.0069999999999997</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -6232,31 +7303,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.96799999999999997</v>
+        <v>1.004</v>
       </c>
       <c r="D11">
-        <v>1.94</v>
+        <v>2.008</v>
       </c>
       <c r="E11">
-        <v>2.9169999999999998</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="F11">
-        <v>3.903</v>
+        <v>4.0129999999999999</v>
       </c>
       <c r="G11">
-        <v>5.4749999999999996</v>
+        <v>5.0140000000000002</v>
       </c>
       <c r="H11">
-        <v>6.4809999999999999</v>
+        <v>6.0129999999999999</v>
       </c>
       <c r="I11">
-        <v>7.4950000000000001</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="J11">
-        <v>8.5180000000000007</v>
+        <v>8.0079999999999991</v>
       </c>
       <c r="K11">
-        <v>9.5470000000000006</v>
+        <v>9.0039999999999996</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -6270,31 +7341,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.97599999999999998</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="D12">
-        <v>1.9550000000000001</v>
+        <v>2.0059999999999998</v>
       </c>
       <c r="E12">
-        <v>2.9380000000000002</v>
+        <v>3.008</v>
       </c>
       <c r="F12">
-        <v>3.927</v>
+        <v>4.0090000000000003</v>
       </c>
       <c r="G12">
-        <v>5.3789999999999996</v>
+        <v>5.0090000000000003</v>
       </c>
       <c r="H12">
-        <v>6.3819999999999997</v>
+        <v>6.0090000000000003</v>
       </c>
       <c r="I12">
-        <v>7.3929999999999998</v>
+        <v>7.0069999999999997</v>
       </c>
       <c r="J12">
-        <v>8.41</v>
+        <v>8.0050000000000008</v>
       </c>
       <c r="K12">
-        <v>9.4320000000000004</v>
+        <v>9.0030000000000001</v>
       </c>
       <c r="L12">
         <v>10</v>
@@ -6311,7 +7382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:L12"/>
     </sheetView>
   </sheetViews>
@@ -6968,7 +8039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838AB084-80A8-4104-99F4-A86C5BD73B07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
